--- a/biology/Zoologie/Cynopterus_sphinx/Cynopterus_sphinx.xlsx
+++ b/biology/Zoologie/Cynopterus_sphinx/Cynopterus_sphinx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynopterus sphinx ou Cynoptère à nez court est une espèce de chauve-souris frugivore, du genre Cynopterus de la famille des Pteropodidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve en Inde, en Indochine et en Indonésie.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce mammifère vit dans les forêts tropicales, dans les forêts de mousson et dans les mangroves. C'est la seule chauve-souris frugivore qui se construit des "tentes" avec des feuilles de palmier.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette chauve-souris à tête de renard (ou tête de chien) a une envergure de 40-50 cm maximum, une longueur tête-corps de 7 à 13 cm[1] et une courte queue de 1-2 cm. Elle pèse 40-45 g.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette chauve-souris à tête de renard (ou tête de chien) a une envergure de 40-50 cm maximum, une longueur tête-corps de 7 à 13 cm et une courte queue de 1-2 cm. Elle pèse 40-45 g.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit en groupe de 6 à 12 individus.
 Le groupe s'abrite le jour dans des cavernes, dans des creux d'arbres, sous les toits des maisons ou sous les grandes feuilles de palmiers.
@@ -637,7 +657,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La chauve-souris cynoptère à nez court est frugivore.
 Elle mange des figues mûres, des mangues, des bananes, des goyaves, des sapotilles, des dattes, des litchis ...
@@ -670,12 +692,14 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En mars ou avril, la femelle met au monde après 3-5 mois de gestation généralement un seul petit.
 Celui-ci s'accroche fermement au corps de sa mère. Elle le transporte alors même en vol.
-Le chauve-souriceau a, à la naissance, une envergure de 24 cm et une masse d'environ 13,5 g ; la jeune chauve-souris de quatre semaines a une envergure de 36 cm et une masse de près de 25 g ; à un an, c'est un adulte[3].
-Une étude de 2009 a relevé que la copulation dorso-ventrale s'accompagnait souvent chez cette espèce de la pratique par la femelle d'une forme de fellation : en penchant la tête, celle-ci lèche la hampe ou la base du pénis de son partenaire, à l'exclusion du gland qui a déjà pénétré le vagin ; le mâle n'interrompt jamais la pénétration au cours de cette action. Ce comportement a une incidence positive sur la durée totale de la copulation : selon les résultats de l'étude, chaque seconde supplémentaire de fellation augmente le temps de copulation d'environ six secondes ; en outre, la copulation dure sensiblement plus longtemps quand il y a fellation que dans le cas contraire. Les auteurs proposent quatre hypothèses explicatives en termes de bénéfice adaptatif : en lubrifiant et en stimulant le pénis, la fellation permettrait d'augmenter la durée de la copulation ; la copulation prolongée pourrait elle-même être une méthode de préservation du couple, les partenaires se séparant généralement post coitum pour rejoindre des groupes unisexués ; la salive aux propriétés antimycosiques et antibactériennes de la femelle préviendrait des maladies sexuellement transmissibles ; enfin, lécher les organes génitaux pourrait faciliter la détection et l'identification de signaux chimiques liés au complexe majeur d'histocompatibilité (CMH) et intervenant dans le choix du partenaire[2].
+Le chauve-souriceau a, à la naissance, une envergure de 24 cm et une masse d'environ 13,5 g ; la jeune chauve-souris de quatre semaines a une envergure de 36 cm et une masse de près de 25 g ; à un an, c'est un adulte.
+Une étude de 2009 a relevé que la copulation dorso-ventrale s'accompagnait souvent chez cette espèce de la pratique par la femelle d'une forme de fellation : en penchant la tête, celle-ci lèche la hampe ou la base du pénis de son partenaire, à l'exclusion du gland qui a déjà pénétré le vagin ; le mâle n'interrompt jamais la pénétration au cours de cette action. Ce comportement a une incidence positive sur la durée totale de la copulation : selon les résultats de l'étude, chaque seconde supplémentaire de fellation augmente le temps de copulation d'environ six secondes ; en outre, la copulation dure sensiblement plus longtemps quand il y a fellation que dans le cas contraire. Les auteurs proposent quatre hypothèses explicatives en termes de bénéfice adaptatif : en lubrifiant et en stimulant le pénis, la fellation permettrait d'augmenter la durée de la copulation ; la copulation prolongée pourrait elle-même être une méthode de préservation du couple, les partenaires se séparant généralement post coitum pour rejoindre des groupes unisexués ; la salive aux propriétés antimycosiques et antibactériennes de la femelle préviendrait des maladies sexuellement transmissibles ; enfin, lécher les organes génitaux pourrait faciliter la détection et l'identification de signaux chimiques liés au complexe majeur d'histocompatibilité (CMH) et intervenant dans le choix du partenaire.
 </t>
         </is>
       </c>
@@ -704,10 +728,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">cingalais (Sri Lanka) :  තල වවුලා (thala wawulaa)
-siamois (Thaïlande) : ค้างคาว ขอบหูขาวกลาง[4]
+siamois (Thaïlande) : ค้างคาว ขอบหูขาวกลาง
 </t>
         </is>
       </c>
@@ -736,9 +762,11 @@
           <t>Chasse</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le nord de la Thaïlande, on chasse cette chauve-souris et on vend sa viande sur les marchés : une croyance populaire dit que cette viande est un remède à toute maladie et qu'elle donne une grande force[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le nord de la Thaïlande, on chasse cette chauve-souris et on vend sa viande sur les marchés : une croyance populaire dit que cette viande est un remède à toute maladie et qu'elle donne une grande force.
 </t>
         </is>
       </c>
